--- a/GameCounter/PS4_exclusive.xlsx
+++ b/GameCounter/PS4_exclusive.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Games on PS4 PC" sheetId="1" r:id="rId1"/>
+    <sheet name="Games on PS4 or PC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
